--- a/StructureDefinition-CertDIVOC.xlsx
+++ b/StructureDefinition-CertDIVOC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="311">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -313,9 +313,88 @@
     <t>Contains claims about one or morebjects (Patients)</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>CertDIVOC.credentialSubject.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CertDIVOC.credentialSubject.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CertDIVOC.credentialSubject.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -382,6 +461,15 @@
     <t>Address</t>
   </si>
   <si>
+    <t>CertDIVOC.credentialSubject.address.id</t>
+  </si>
+  <si>
+    <t>CertDIVOC.credentialSubject.address.extension</t>
+  </si>
+  <si>
+    <t>CertDIVOC.credentialSubject.address.modifierExtension</t>
+  </si>
+  <si>
     <t>CertDIVOC.credentialSubject.address.streetAddress</t>
   </si>
   <si>
@@ -434,6 +522,12 @@
   </si>
   <si>
     <t>CertDIVOC.evidence.id</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.extension</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.modifierExtension</t>
   </si>
   <si>
     <t>CertDIVOC.evidence.feedbackUrl</t>
@@ -521,6 +615,15 @@
     <t>Practitioner that oversaw the application</t>
   </si>
   <si>
+    <t>CertDIVOC.evidence.verifier.id</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.verifier.extension</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.verifier.modifierExtension</t>
+  </si>
+  <si>
     <t>CertDIVOC.evidence.verifier.name</t>
   </si>
   <si>
@@ -534,6 +637,15 @@
   </si>
   <si>
     <t>Facility where the immunization took place</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.id</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.extension</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.modifierExtension</t>
   </si>
   <si>
     <t>CertDIVOC.evidence.facility.name</t>
@@ -552,27 +664,249 @@
     <t>Address of the facility</t>
   </si>
   <si>
+    <t>CertDIVOC.evidence.facility.address.id</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.address.extension</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.address.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>CertDIVOC.evidence.facility.address.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
     <t>CertDIVOC.evidence.facility.address.streetAddress</t>
   </si>
   <si>
     <t>CertDIVOC.evidence.facility.address.streetAddress2</t>
   </si>
   <si>
-    <t>CertDIVOC.evidence.facility.address.district</t>
-  </si>
-  <si>
-    <t>CertDIVOC.evidence.facility.address.city</t>
-  </si>
-  <si>
     <t>CertDIVOC.evidence.facility.address.addressRegion</t>
   </si>
   <si>
     <t>CertDIVOC.evidence.facility.address.addressCountry</t>
   </si>
   <si>
-    <t>CertDIVOC.evidence.facility.address.postalCode</t>
-  </si>
-  <si>
     <t>CertDIVOC.evidence.icd11Code</t>
   </si>
   <si>
@@ -592,6 +926,15 @@
   </si>
   <si>
     <t>One or more cryptographic proofs that can be used to detect tampering and verify the authorship of a credential or presentation</t>
+  </si>
+  <si>
+    <t>CertDIVOC.proof.id</t>
+  </si>
+  <si>
+    <t>CertDIVOC.proof.extension</t>
+  </si>
+  <si>
+    <t>CertDIVOC.proof.modifierExtension</t>
   </si>
   <si>
     <t>CertDIVOC.proof.type</t>
@@ -929,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ60"/>
+  <dimension ref="A1:AJ90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -938,9 +1281,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.4296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.51953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -961,11 +1304,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="39.6640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.51171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="50.4296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -973,7 +1316,7 @@
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="30.98828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1780,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>72</v>
@@ -1788,7 +2131,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1814,10 +2157,10 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1868,7 +2211,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -1883,20 +2226,20 @@
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>74</v>
@@ -1911,15 +2254,17 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>72</v>
@@ -1956,22 +2301,22 @@
         <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -1980,47 +2325,51 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>72</v>
       </c>
@@ -2068,27 +2417,27 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2114,10 +2463,10 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2168,7 +2517,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -2188,7 +2537,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2196,10 +2545,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -2214,10 +2563,10 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2268,13 +2617,13 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
@@ -2288,7 +2637,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2314,10 +2663,10 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2368,7 +2717,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -2388,7 +2737,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2414,10 +2763,10 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2468,7 +2817,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -2488,7 +2837,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2514,10 +2863,10 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2568,7 +2917,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -2588,7 +2937,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2611,13 +2960,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2668,7 +3017,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -2688,7 +3037,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2714,10 +3063,10 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2768,7 +3117,7 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -2788,7 +3137,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2811,13 +3160,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2868,7 +3217,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -2888,7 +3237,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2911,13 +3260,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2968,7 +3317,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -2988,7 +3337,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3014,10 +3363,10 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3068,7 +3417,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -3088,7 +3437,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3111,13 +3460,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3168,7 +3517,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3180,7 +3529,7 @@
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>72</v>
@@ -3188,7 +3537,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3214,10 +3563,10 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3268,7 +3617,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3283,23 +3632,23 @@
         <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -3311,15 +3660,17 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>72</v>
@@ -3356,71 +3707,75 @@
         <v>72</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>72</v>
       </c>
@@ -3468,27 +3823,27 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3514,10 +3869,10 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3568,7 +3923,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -3588,7 +3943,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3599,7 +3954,7 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -3611,13 +3966,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3668,13 +4023,13 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
@@ -3688,7 +4043,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3714,10 +4069,10 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3768,7 +4123,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -3788,7 +4143,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3814,10 +4169,10 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3868,7 +4223,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -3888,7 +4243,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3914,10 +4269,10 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3968,7 +4323,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -3988,7 +4343,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4014,10 +4369,10 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4068,7 +4423,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -4088,7 +4443,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4096,10 +4451,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -4114,10 +4469,10 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4168,13 +4523,13 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
@@ -4188,7 +4543,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4199,7 +4554,7 @@
         <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>72</v>
@@ -4211,13 +4566,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4268,19 +4623,19 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>72</v>
@@ -4288,7 +4643,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4314,10 +4669,10 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4368,7 +4723,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -4383,23 +4738,23 @@
         <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -4411,15 +4766,17 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>72</v>
@@ -4456,71 +4813,75 @@
         <v>72</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>72</v>
       </c>
@@ -4568,27 +4929,27 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4611,13 +4972,13 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4668,7 +5029,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -4688,7 +5049,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4711,13 +5072,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4768,7 +5129,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -4788,7 +5149,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4811,13 +5172,13 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4868,7 +5229,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -4888,7 +5249,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4911,13 +5272,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4968,7 +5329,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -4988,7 +5349,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4996,10 +5357,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
@@ -5011,13 +5372,13 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5068,13 +5429,13 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
@@ -5088,7 +5449,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5114,10 +5475,10 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5168,7 +5529,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -5188,7 +5549,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5211,13 +5572,13 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5268,7 +5629,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -5288,7 +5649,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5314,10 +5675,10 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5368,7 +5729,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -5388,7 +5749,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5411,13 +5772,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5468,7 +5829,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -5488,7 +5849,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5511,13 +5872,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5568,7 +5929,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -5588,7 +5949,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5611,13 +5972,13 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5668,7 +6029,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -5688,7 +6049,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5711,13 +6072,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5768,7 +6129,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -5788,7 +6149,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5811,13 +6172,13 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5868,7 +6229,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -5888,7 +6249,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -5911,13 +6272,13 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -5968,7 +6329,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -5980,7 +6341,7 @@
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
@@ -5988,7 +6349,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6014,10 +6375,10 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6068,7 +6429,7 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
@@ -6083,23 +6444,23 @@
         <v>72</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>72</v>
@@ -6111,15 +6472,17 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>72</v>
@@ -6156,71 +6519,75 @@
         <v>72</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>72</v>
       </c>
@@ -6268,27 +6635,27 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6314,10 +6681,10 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6368,7 +6735,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -6388,7 +6755,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6396,10 +6763,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>72</v>
@@ -6414,10 +6781,10 @@
         <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6468,19 +6835,19 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>72</v>
@@ -6488,7 +6855,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6514,10 +6881,10 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6568,7 +6935,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -6583,23 +6950,23 @@
         <v>72</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>72</v>
@@ -6611,15 +6978,17 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>72</v>
@@ -6656,71 +7025,75 @@
         <v>72</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>72</v>
       </c>
@@ -6768,27 +7141,27 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6814,10 +7187,10 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6868,7 +7241,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -6888,7 +7261,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -6896,7 +7269,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>77</v>
@@ -6911,13 +7284,13 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6968,10 +7341,10 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -6980,9 +7353,3033 @@
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/StructureDefinition-CertDIVOC.xlsx
+++ b/StructureDefinition-CertDIVOC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertDIVOC.xlsx
+++ b/StructureDefinition-CertDIVOC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertDIVOC.xlsx
+++ b/StructureDefinition-CertDIVOC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertDIVOC.xlsx
+++ b/StructureDefinition-CertDIVOC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertDIVOC.xlsx
+++ b/StructureDefinition-CertDIVOC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertDIVOC.xlsx
+++ b/StructureDefinition-CertDIVOC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertDIVOC.xlsx
+++ b/StructureDefinition-CertDIVOC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertDIVOC.xlsx
+++ b/StructureDefinition-CertDIVOC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertDIVOC.xlsx
+++ b/StructureDefinition-CertDIVOC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertDIVOC.xlsx
+++ b/StructureDefinition-CertDIVOC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CertDIVOC.xlsx
+++ b/StructureDefinition-CertDIVOC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
